--- a/Acme5_Training_Performer/Data/Config.xlsx
+++ b/Acme5_Training_Performer/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec0a6aa1e4f2ff2d/Documents/UiPath/Acme5_Training_Performer/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mai Le\Documents\Git\acme5-tested\Acme5_Training_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9BE7DFF5-5AFC-4110-8461-609B0BDD5551}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8DFCBFA7-CDE9-4B54-817E-3571350B3E51}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC90F3CC-EC5D-4B19-8EEC-52FEDF01934F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -122,12 +122,21 @@
   <si>
     <t>Acme5_Brandon</t>
   </si>
+  <si>
+    <t>ACME5_Credential</t>
+  </si>
+  <si>
+    <t>Credential</t>
+  </si>
+  <si>
+    <t>Credential to log into ACME</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -151,6 +160,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF464E55"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -172,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -182,6 +197,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,15 +515,15 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.54296875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -556,7 +572,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="29">
+    <row r="4" spans="1:26" ht="30">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -568,7 +584,17 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1573,12 +1599,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1615,7 +1641,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="29">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2685,12 +2711,12 @@
       <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.81640625" customWidth="1"/>
-    <col min="2" max="2" width="30.1796875" customWidth="1"/>
-    <col min="3" max="3" width="60.26953125" customWidth="1"/>
-    <col min="4" max="26" width="65.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
